--- a/data/meta_data/plate14_setup_final.xlsx
+++ b/data/meta_data/plate14_setup_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F53F6-6793-904D-813E-5A953487586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B5CC0-1B3B-5C44-BC41-70ADF08A4D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="8800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9020" yWindow="7580" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate14_setup_final" sheetId="1" r:id="rId1"/>
